--- a/CostingSheetTemplate.xlsx
+++ b/CostingSheetTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\nrb-costing-sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\costing-sheets-com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A05600-6C8A-488E-A8AE-0AA0852DA0D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C555B252-B3A3-4966-9FD7-D631015188C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="55">
   <si>
     <t>Boat #</t>
   </si>
@@ -184,9 +184,6 @@
   </si>
   <si>
     <t xml:space="preserve">TOTAL ENGINE &amp; JET </t>
-  </si>
-  <si>
-    <t>Engine - Jet</t>
   </si>
   <si>
     <t>Canvas Materials</t>
@@ -1277,9 +1274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J461"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1947,7 +1942,7 @@
         <v>46</v>
       </c>
       <c r="I35" s="71">
-        <f>SUM(I8:I34)*0.08</f>
+        <f>SUM(I6:I34)*0</f>
         <v>0</v>
       </c>
       <c r="J35" s="23"/>
@@ -1958,7 +1953,7 @@
         <v>10</v>
       </c>
       <c r="I36" s="54">
-        <f>SUM(I8:I34)+I35</f>
+        <f>SUM(I6:I34)+I35</f>
         <v>0</v>
       </c>
       <c r="J36" s="23"/>
@@ -2629,7 +2624,7 @@
         <v>46</v>
       </c>
       <c r="I67" s="10">
-        <f>SUM(I42:I66)*0.5</f>
+        <f>SUM(I40:I66)*0</f>
         <v>0</v>
       </c>
       <c r="J67" s="23"/>
@@ -2640,7 +2635,7 @@
         <v>13</v>
       </c>
       <c r="I68" s="54">
-        <f>SUM(I42:I66)+I67</f>
+        <f>SUM(I40:I66)+I67</f>
         <v>0</v>
       </c>
       <c r="J68" s="23"/>
@@ -2667,7 +2662,7 @@
         <v>11</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H71" s="13"/>
       <c r="I71" s="15"/>
@@ -3320,10 +3315,10 @@
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C100" s="14"/>
       <c r="H100" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I100" s="54">
-        <f>SUM(I74:I98)</f>
+        <f>SUM(I73:I98)</f>
         <v>0</v>
       </c>
       <c r="J100" s="23"/>
@@ -9036,7 +9031,7 @@
         <v>19</v>
       </c>
       <c r="I363" s="25">
-        <f>SUM(I106:I361)</f>
+        <f>SUM(I105:I361)</f>
         <v>0</v>
       </c>
       <c r="J363"/>
@@ -9354,7 +9349,7 @@
     <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D385" s="34"/>
       <c r="H385" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I385" s="6">
         <f>I383+I373+I363</f>
@@ -9825,7 +9820,7 @@
     </row>
     <row r="419" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D419" s="34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I419" s="25">
         <f>I100</f>
@@ -9853,7 +9848,7 @@
     </row>
     <row r="422" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D422" s="34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G422" s="25"/>
       <c r="H422" s="9"/>
@@ -9868,7 +9863,7 @@
         <v>29</v>
       </c>
       <c r="I423" s="6">
-        <f>SUM(I417:I421)</f>
+        <f>SUM(I417:I422)</f>
         <v>0</v>
       </c>
     </row>
@@ -9895,7 +9890,7 @@
         <v>56.69</v>
       </c>
       <c r="I428" s="25">
-        <f>G428*F428</f>
+        <f t="shared" ref="I428:I433" si="28">G428*F428</f>
         <v>0</v>
       </c>
     </row>
@@ -9908,15 +9903,22 @@
         <v>30.22</v>
       </c>
       <c r="I429" s="25">
-        <f>G429*F429</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="430" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D430" s="34"/>
+      <c r="D430" s="34" t="s">
+        <v>53</v>
+      </c>
       <c r="F430" s="14"/>
-      <c r="G430" s="75"/>
-      <c r="I430" s="25"/>
+      <c r="G430" s="75">
+        <v>0</v>
+      </c>
+      <c r="I430" s="25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="431" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D431" s="34" t="s">
@@ -9927,7 +9929,7 @@
         <v>35.619999999999997</v>
       </c>
       <c r="I431" s="25">
-        <f>G431*F431</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -9940,7 +9942,7 @@
         <v>40.840000000000003</v>
       </c>
       <c r="I432" s="25">
-        <f>G432*F432</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -9953,7 +9955,7 @@
         <v>36</v>
       </c>
       <c r="I433" s="25">
-        <f>G433*F433</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>

--- a/CostingSheetTemplate.xlsx
+++ b/CostingSheetTemplate.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\costing-sheets-com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C555B252-B3A3-4966-9FD7-D631015188C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22935" yWindow="-105" windowWidth="23250" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="COSTING SHEET" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'COSTING SHEET'!$A$2:$I$421</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -201,7 +200,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -871,7 +870,7 @@
     <cellStyle name="Calculation" xfId="26" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="27" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Currency" xfId="28" builtinId="4"/>
-    <cellStyle name="Currency 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Currency 2" xfId="43"/>
     <cellStyle name="Explanatory Text" xfId="29" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="30" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="31" builtinId="16" customBuiltin="1"/>
@@ -1027,23 +1026,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1079,23 +1061,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1271,26 +1236,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J461"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" customWidth="1"/>
-    <col min="3" max="3" width="44.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="4.88671875" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="28.2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A2" s="31"/>
       <c r="B2" s="32"/>
       <c r="C2" s="24">
@@ -1299,7 +1264,7 @@
       <c r="D2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="28.2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:10" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A3" s="31" t="s">
         <v>0</v>
       </c>
@@ -1308,16 +1273,16 @@
       <c r="D3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="34"/>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C5" s="64" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="55" t="s">
         <v>2</v>
       </c>
@@ -1342,7 +1307,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="65"/>
       <c r="B8" s="66"/>
       <c r="C8" s="66"/>
@@ -1364,7 +1329,7 @@
       </c>
       <c r="J8" s="23"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="38"/>
@@ -1386,7 +1351,7 @@
       </c>
       <c r="J9" s="23"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="38"/>
@@ -1408,7 +1373,7 @@
       </c>
       <c r="J10" s="23"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="38"/>
@@ -1430,7 +1395,7 @@
       </c>
       <c r="J11" s="23"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="38"/>
@@ -1452,7 +1417,7 @@
       </c>
       <c r="J12" s="23"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="38"/>
@@ -1474,7 +1439,7 @@
       </c>
       <c r="J13" s="23"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="38"/>
@@ -1496,7 +1461,7 @@
       </c>
       <c r="J14" s="23"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="38"/>
@@ -1518,7 +1483,7 @@
       </c>
       <c r="J15" s="23"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="38"/>
@@ -1540,7 +1505,7 @@
       </c>
       <c r="J16" s="23"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="38"/>
@@ -1562,7 +1527,7 @@
       </c>
       <c r="J17" s="23"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="38"/>
@@ -1584,7 +1549,7 @@
       </c>
       <c r="J18" s="23"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="38"/>
@@ -1606,7 +1571,7 @@
       </c>
       <c r="J19" s="23"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="38"/>
@@ -1628,7 +1593,7 @@
       </c>
       <c r="J20" s="23"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="38"/>
@@ -1650,7 +1615,7 @@
       </c>
       <c r="J21" s="23"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="38"/>
@@ -1672,7 +1637,7 @@
       </c>
       <c r="J22" s="23"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="38"/>
@@ -1694,7 +1659,7 @@
       </c>
       <c r="J23" s="23"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="38"/>
@@ -1716,7 +1681,7 @@
       </c>
       <c r="J24" s="23"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="38"/>
@@ -1738,7 +1703,7 @@
       </c>
       <c r="J25" s="23"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="38"/>
@@ -1760,7 +1725,7 @@
       </c>
       <c r="J26" s="23"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="38"/>
@@ -1782,7 +1747,7 @@
       </c>
       <c r="J27" s="23"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="38"/>
@@ -1804,7 +1769,7 @@
       </c>
       <c r="J28" s="23"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="38"/>
@@ -1826,7 +1791,7 @@
       </c>
       <c r="J29" s="23"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="38"/>
@@ -1848,7 +1813,7 @@
       </c>
       <c r="J30" s="23"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="38"/>
@@ -1870,7 +1835,7 @@
       </c>
       <c r="J31" s="23"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="38"/>
@@ -1892,7 +1857,7 @@
       </c>
       <c r="J32" s="23"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="38"/>
@@ -1914,7 +1879,7 @@
       </c>
       <c r="J33" s="23"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="38"/>
@@ -1936,29 +1901,29 @@
       </c>
       <c r="J34" s="23"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C35" s="14"/>
       <c r="H35" s="13" t="s">
         <v>46</v>
       </c>
       <c r="I35" s="71">
-        <f>SUM(I6:I34)*0</f>
+        <f>SUM(I7:I34)*0</f>
         <v>0</v>
       </c>
       <c r="J35" s="23"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C36" s="14"/>
       <c r="H36" s="13" t="s">
         <v>10</v>
       </c>
       <c r="I36" s="54">
-        <f>SUM(I6:I34)+I35</f>
+        <f>SUM(I7:I34)+I35</f>
         <v>0</v>
       </c>
       <c r="J36" s="23"/>
     </row>
-    <row r="37" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -1970,12 +1935,12 @@
       <c r="I37" s="17"/>
       <c r="J37" s="23"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H38" s="13"/>
       <c r="I38" s="15"/>
       <c r="J38" s="23"/>
     </row>
-    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -1986,12 +1951,12 @@
       <c r="I39" s="15"/>
       <c r="J39" s="23"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H40" s="13"/>
       <c r="I40" s="15"/>
       <c r="J40" s="22"/>
     </row>
-    <row r="41" spans="1:10" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="55" t="s">
         <v>2</v>
       </c>
@@ -2018,7 +1983,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="66"/>
       <c r="B42" s="66"/>
       <c r="C42" s="70"/>
@@ -2042,7 +2007,7 @@
       </c>
       <c r="J42" s="23"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="38"/>
@@ -2066,7 +2031,7 @@
       </c>
       <c r="J43" s="23"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="16"/>
       <c r="B44" s="16"/>
       <c r="C44" s="38"/>
@@ -2090,7 +2055,7 @@
       </c>
       <c r="J44" s="23"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
       <c r="C45" s="38"/>
@@ -2114,7 +2079,7 @@
       </c>
       <c r="J45" s="23"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
       <c r="C46" s="38"/>
@@ -2138,7 +2103,7 @@
       </c>
       <c r="J46" s="23"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
       <c r="C47" s="38"/>
@@ -2162,7 +2127,7 @@
       </c>
       <c r="J47" s="23"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
       <c r="C48" s="38"/>
@@ -2186,7 +2151,7 @@
       </c>
       <c r="J48" s="23"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="38"/>
@@ -2210,7 +2175,7 @@
       </c>
       <c r="J49" s="23"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="16"/>
       <c r="B50" s="16"/>
       <c r="C50" s="38"/>
@@ -2234,7 +2199,7 @@
       </c>
       <c r="J50" s="23"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="C51" s="38"/>
@@ -2258,7 +2223,7 @@
       </c>
       <c r="J51" s="23"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="16"/>
       <c r="B52" s="16"/>
       <c r="C52" s="38"/>
@@ -2282,7 +2247,7 @@
       </c>
       <c r="J52" s="23"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="16"/>
       <c r="B53" s="16"/>
       <c r="C53" s="38"/>
@@ -2306,7 +2271,7 @@
       </c>
       <c r="J53" s="23"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="38"/>
@@ -2330,7 +2295,7 @@
       </c>
       <c r="J54" s="23"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="16"/>
       <c r="B55" s="16"/>
       <c r="C55" s="38"/>
@@ -2354,7 +2319,7 @@
       </c>
       <c r="J55" s="23"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="16"/>
       <c r="B56" s="16"/>
       <c r="C56" s="38"/>
@@ -2378,7 +2343,7 @@
       </c>
       <c r="J56" s="23"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="16"/>
       <c r="B57" s="16"/>
       <c r="C57" s="38"/>
@@ -2402,7 +2367,7 @@
       </c>
       <c r="J57" s="23"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="16"/>
       <c r="B58" s="16"/>
       <c r="C58" s="38"/>
@@ -2426,7 +2391,7 @@
       </c>
       <c r="J58" s="23"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="16"/>
       <c r="B59" s="16"/>
       <c r="C59" s="38"/>
@@ -2450,7 +2415,7 @@
       </c>
       <c r="J59" s="23"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
       <c r="C60" s="38"/>
@@ -2474,7 +2439,7 @@
       </c>
       <c r="J60" s="23"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="16"/>
       <c r="B61" s="16"/>
       <c r="C61" s="38"/>
@@ -2498,7 +2463,7 @@
       </c>
       <c r="J61" s="23"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
       <c r="C62" s="38"/>
@@ -2522,7 +2487,7 @@
       </c>
       <c r="J62" s="23"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="16"/>
       <c r="B63" s="16"/>
       <c r="C63" s="38"/>
@@ -2546,7 +2511,7 @@
       </c>
       <c r="J63" s="23"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
       <c r="C64" s="38"/>
@@ -2570,7 +2535,7 @@
       </c>
       <c r="J64" s="23"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="16"/>
       <c r="B65" s="16"/>
       <c r="C65" s="38"/>
@@ -2594,7 +2559,7 @@
       </c>
       <c r="J65" s="23"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
       <c r="C66" s="38"/>
@@ -2618,29 +2583,29 @@
       </c>
       <c r="J66" s="23"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C67" s="14"/>
       <c r="H67" s="13" t="s">
         <v>46</v>
       </c>
       <c r="I67" s="10">
-        <f>SUM(I40:I66)*0</f>
+        <f>SUM(I41:I66)*0</f>
         <v>0</v>
       </c>
       <c r="J67" s="23"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C68" s="14"/>
       <c r="H68" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I68" s="54">
-        <f>SUM(I40:I66)+I67</f>
+        <f>SUM(I41:I66)+I67</f>
         <v>0</v>
       </c>
       <c r="J68" s="23"/>
     </row>
-    <row r="69" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
@@ -2652,12 +2617,12 @@
       <c r="I69" s="12"/>
       <c r="J69" s="23"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H70" s="13"/>
       <c r="I70" s="15"/>
       <c r="J70" s="23"/>
     </row>
-    <row r="71" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -2668,12 +2633,12 @@
       <c r="I71" s="15"/>
       <c r="J71" s="23"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H72" s="13"/>
       <c r="I72" s="15"/>
       <c r="J72" s="22"/>
     </row>
-    <row r="73" spans="1:10" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="55" t="s">
         <v>2</v>
       </c>
@@ -2700,7 +2665,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="66"/>
       <c r="B74" s="66"/>
       <c r="C74" s="70"/>
@@ -2724,7 +2689,7 @@
       </c>
       <c r="J74" s="23"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="16"/>
       <c r="B75" s="16"/>
       <c r="C75" s="38"/>
@@ -2748,7 +2713,7 @@
       </c>
       <c r="J75" s="23"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="38"/>
@@ -2772,7 +2737,7 @@
       </c>
       <c r="J76" s="23"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="38"/>
@@ -2796,7 +2761,7 @@
       </c>
       <c r="J77" s="23"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
       <c r="C78" s="38"/>
@@ -2820,7 +2785,7 @@
       </c>
       <c r="J78" s="23"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="16"/>
       <c r="B79" s="16"/>
       <c r="C79" s="38"/>
@@ -2844,7 +2809,7 @@
       </c>
       <c r="J79" s="23"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="38"/>
@@ -2868,7 +2833,7 @@
       </c>
       <c r="J80" s="23"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="16"/>
       <c r="B81" s="16"/>
       <c r="C81" s="38"/>
@@ -2892,7 +2857,7 @@
       </c>
       <c r="J81" s="23"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="38"/>
@@ -2916,7 +2881,7 @@
       </c>
       <c r="J82" s="23"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="16"/>
       <c r="B83" s="16"/>
       <c r="C83" s="38"/>
@@ -2940,7 +2905,7 @@
       </c>
       <c r="J83" s="23"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
       <c r="C84" s="38"/>
@@ -2964,7 +2929,7 @@
       </c>
       <c r="J84" s="23"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="16"/>
       <c r="B85" s="16"/>
       <c r="C85" s="38"/>
@@ -2988,7 +2953,7 @@
       </c>
       <c r="J85" s="23"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="16"/>
       <c r="B86" s="16"/>
       <c r="C86" s="38"/>
@@ -3012,7 +2977,7 @@
       </c>
       <c r="J86" s="23"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="16"/>
       <c r="B87" s="16"/>
       <c r="C87" s="38"/>
@@ -3036,7 +3001,7 @@
       </c>
       <c r="J87" s="23"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="16"/>
       <c r="B88" s="16"/>
       <c r="C88" s="38"/>
@@ -3060,7 +3025,7 @@
       </c>
       <c r="J88" s="23"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="16"/>
       <c r="B89" s="16"/>
       <c r="C89" s="38"/>
@@ -3084,7 +3049,7 @@
       </c>
       <c r="J89" s="23"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="16"/>
       <c r="B90" s="16"/>
       <c r="C90" s="38"/>
@@ -3108,7 +3073,7 @@
       </c>
       <c r="J90" s="23"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="16"/>
       <c r="B91" s="16"/>
       <c r="C91" s="38"/>
@@ -3132,7 +3097,7 @@
       </c>
       <c r="J91" s="23"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="16"/>
       <c r="B92" s="16"/>
       <c r="C92" s="38"/>
@@ -3156,7 +3121,7 @@
       </c>
       <c r="J92" s="23"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="16"/>
       <c r="B93" s="16"/>
       <c r="C93" s="38"/>
@@ -3180,7 +3145,7 @@
       </c>
       <c r="J93" s="23"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="16"/>
       <c r="B94" s="16"/>
       <c r="C94" s="38"/>
@@ -3204,7 +3169,7 @@
       </c>
       <c r="J94" s="23"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="16"/>
       <c r="B95" s="16"/>
       <c r="C95" s="38"/>
@@ -3228,7 +3193,7 @@
       </c>
       <c r="J95" s="23"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="16"/>
       <c r="B96" s="16"/>
       <c r="C96" s="38"/>
@@ -3252,7 +3217,7 @@
       </c>
       <c r="J96" s="23"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="16"/>
       <c r="B97" s="16"/>
       <c r="C97" s="38"/>
@@ -3276,7 +3241,7 @@
       </c>
       <c r="J97" s="23"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="16"/>
       <c r="B98" s="16"/>
       <c r="C98" s="38"/>
@@ -3300,7 +3265,7 @@
       </c>
       <c r="J98" s="23"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="23"/>
       <c r="B99" s="23"/>
       <c r="C99" s="49"/>
@@ -3312,7 +3277,7 @@
       <c r="I99" s="50"/>
       <c r="J99" s="23"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C100" s="14"/>
       <c r="H100" s="13" t="s">
         <v>52</v>
@@ -3323,7 +3288,7 @@
       </c>
       <c r="J100" s="23"/>
     </row>
-    <row r="101" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
@@ -3335,18 +3300,18 @@
       <c r="I101" s="12"/>
       <c r="J101" s="23"/>
     </row>
-    <row r="103" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C103" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="1"/>
       <c r="G104" s="2"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:10" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="55" t="s">
         <v>2</v>
       </c>
@@ -3375,7 +3340,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="72"/>
       <c r="B106" s="72"/>
       <c r="C106" s="72"/>
@@ -3398,7 +3363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="19"/>
       <c r="B107" s="19"/>
       <c r="C107" s="19"/>
@@ -3420,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="19"/>
       <c r="B108" s="19"/>
       <c r="C108" s="19"/>
@@ -3442,7 +3407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="19"/>
       <c r="B109" s="19"/>
       <c r="C109" s="19"/>
@@ -3464,7 +3429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="19"/>
       <c r="B110" s="19"/>
       <c r="C110" s="19"/>
@@ -3486,7 +3451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="19"/>
       <c r="B111" s="19"/>
       <c r="C111" s="19"/>
@@ -3508,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="19"/>
       <c r="B112" s="19"/>
       <c r="C112" s="19"/>
@@ -3530,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="19"/>
       <c r="B113" s="19"/>
       <c r="C113" s="19"/>
@@ -3552,7 +3517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="19"/>
       <c r="B114" s="19"/>
       <c r="C114" s="19"/>
@@ -3574,7 +3539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="19"/>
       <c r="B115" s="19"/>
       <c r="C115" s="19"/>
@@ -3596,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="19"/>
       <c r="B116" s="19"/>
       <c r="C116" s="19"/>
@@ -3618,7 +3583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="19"/>
       <c r="B117" s="19"/>
       <c r="C117" s="19"/>
@@ -3640,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="19"/>
       <c r="B118" s="19"/>
       <c r="C118" s="19"/>
@@ -3662,7 +3627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="19"/>
       <c r="B119" s="19"/>
       <c r="C119" s="19"/>
@@ -3684,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="19"/>
       <c r="B120" s="19"/>
       <c r="C120" s="19"/>
@@ -3706,7 +3671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="19"/>
       <c r="B121" s="19"/>
       <c r="C121" s="19"/>
@@ -3728,7 +3693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="19"/>
       <c r="B122" s="19"/>
       <c r="C122" s="19"/>
@@ -3750,7 +3715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="19"/>
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
@@ -3772,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="19"/>
       <c r="B124" s="19"/>
       <c r="C124" s="19"/>
@@ -3794,7 +3759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="19"/>
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
@@ -3816,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="19"/>
       <c r="B126" s="19"/>
       <c r="C126" s="19"/>
@@ -3838,7 +3803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="19"/>
       <c r="B127" s="19"/>
       <c r="C127" s="19"/>
@@ -3860,7 +3825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="19"/>
       <c r="B128" s="19"/>
       <c r="C128" s="19"/>
@@ -3882,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="19"/>
       <c r="B129" s="19"/>
       <c r="C129" s="19"/>
@@ -3904,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="19"/>
       <c r="B130" s="19"/>
       <c r="C130" s="19"/>
@@ -3926,7 +3891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="19"/>
       <c r="B131" s="19"/>
       <c r="C131" s="19"/>
@@ -3948,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="19"/>
       <c r="B132" s="19"/>
       <c r="C132" s="19"/>
@@ -3970,7 +3935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="19"/>
       <c r="B133" s="19"/>
       <c r="C133" s="19"/>
@@ -3992,7 +3957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="19"/>
       <c r="B134" s="19"/>
       <c r="C134" s="19"/>
@@ -4014,7 +3979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="19"/>
       <c r="B135" s="19"/>
       <c r="C135" s="19"/>
@@ -4036,7 +4001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="19"/>
       <c r="B136" s="19"/>
       <c r="C136" s="19"/>
@@ -4058,7 +4023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="19"/>
       <c r="B137" s="19"/>
       <c r="C137" s="19"/>
@@ -4080,7 +4045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="19"/>
       <c r="B138" s="19"/>
       <c r="C138" s="19"/>
@@ -4102,7 +4067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="19"/>
       <c r="B139" s="19"/>
       <c r="C139" s="19"/>
@@ -4124,7 +4089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="19"/>
       <c r="B140" s="19"/>
       <c r="C140" s="19"/>
@@ -4146,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="19"/>
       <c r="B141" s="19"/>
       <c r="C141" s="19"/>
@@ -4168,7 +4133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="19"/>
       <c r="B142" s="19"/>
       <c r="C142" s="19"/>
@@ -4190,7 +4155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="19"/>
       <c r="B143" s="19"/>
       <c r="C143" s="19"/>
@@ -4212,7 +4177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="19"/>
       <c r="B144" s="19"/>
       <c r="C144" s="19"/>
@@ -4234,7 +4199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="19"/>
       <c r="B145" s="19"/>
       <c r="C145" s="19"/>
@@ -4256,7 +4221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="19"/>
       <c r="B146" s="19"/>
       <c r="C146" s="19"/>
@@ -4278,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="19"/>
       <c r="B147" s="19"/>
       <c r="C147" s="19"/>
@@ -4300,7 +4265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="19"/>
       <c r="B148" s="19"/>
       <c r="C148" s="19"/>
@@ -4322,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="19"/>
       <c r="B149" s="19"/>
       <c r="C149" s="19"/>
@@ -4344,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="19"/>
       <c r="B150" s="19"/>
       <c r="C150" s="19"/>
@@ -4366,7 +4331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="19"/>
       <c r="B151" s="19"/>
       <c r="C151" s="19"/>
@@ -4388,7 +4353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="19"/>
       <c r="B152" s="19"/>
       <c r="C152" s="19"/>
@@ -4410,7 +4375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="19"/>
       <c r="B153" s="19"/>
       <c r="C153" s="19"/>
@@ -4432,7 +4397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="19"/>
       <c r="B154" s="19"/>
       <c r="C154" s="19"/>
@@ -4454,7 +4419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="19"/>
       <c r="B155" s="19"/>
       <c r="C155" s="19"/>
@@ -4476,7 +4441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="19"/>
       <c r="B156" s="19"/>
       <c r="C156" s="19"/>
@@ -4498,7 +4463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="19"/>
       <c r="B157" s="19"/>
       <c r="C157" s="19"/>
@@ -4520,7 +4485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="19"/>
       <c r="B158" s="19"/>
       <c r="C158" s="19"/>
@@ -4542,7 +4507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="19"/>
       <c r="B159" s="19"/>
       <c r="C159" s="19"/>
@@ -4564,7 +4529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="19"/>
       <c r="B160" s="19"/>
       <c r="C160" s="19"/>
@@ -4586,7 +4551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="19"/>
       <c r="B161" s="19"/>
       <c r="C161" s="19"/>
@@ -4608,7 +4573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="19"/>
       <c r="B162" s="19"/>
       <c r="C162" s="19"/>
@@ -4630,7 +4595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="19"/>
       <c r="B163" s="19"/>
       <c r="C163" s="19"/>
@@ -4652,7 +4617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="19"/>
       <c r="B164" s="19"/>
       <c r="C164" s="19"/>
@@ -4674,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="19"/>
       <c r="B165" s="19"/>
       <c r="C165" s="19"/>
@@ -4696,7 +4661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="19"/>
       <c r="B166" s="19"/>
       <c r="C166" s="19"/>
@@ -4718,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="19"/>
       <c r="B167" s="19"/>
       <c r="C167" s="19"/>
@@ -4740,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="19"/>
       <c r="B168" s="19"/>
       <c r="C168" s="19"/>
@@ -4762,7 +4727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="19"/>
       <c r="B169" s="19"/>
       <c r="C169" s="19"/>
@@ -4784,7 +4749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="19"/>
       <c r="B170" s="19"/>
       <c r="C170" s="19"/>
@@ -4806,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="19"/>
       <c r="B171" s="19"/>
       <c r="C171" s="19"/>
@@ -4828,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="19"/>
       <c r="B172" s="19"/>
       <c r="C172" s="19"/>
@@ -4850,7 +4815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="19"/>
       <c r="B173" s="19"/>
       <c r="C173" s="19"/>
@@ -4872,7 +4837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="19"/>
       <c r="B174" s="19"/>
       <c r="C174" s="19"/>
@@ -4894,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="19"/>
       <c r="B175" s="19"/>
       <c r="C175" s="19"/>
@@ -4916,7 +4881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="19"/>
       <c r="B176" s="19"/>
       <c r="C176" s="19"/>
@@ -4938,7 +4903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="19"/>
       <c r="B177" s="19"/>
       <c r="C177" s="19"/>
@@ -4960,7 +4925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="19"/>
       <c r="B178" s="19"/>
       <c r="C178" s="19"/>
@@ -4982,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="19"/>
       <c r="B179" s="19"/>
       <c r="C179" s="19"/>
@@ -5004,7 +4969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="19"/>
       <c r="B180" s="19"/>
       <c r="C180" s="19"/>
@@ -5026,7 +4991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="19"/>
       <c r="B181" s="19"/>
       <c r="C181" s="19"/>
@@ -5048,7 +5013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="19"/>
       <c r="B182" s="19"/>
       <c r="C182" s="19"/>
@@ -5070,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="19"/>
       <c r="B183" s="19"/>
       <c r="C183" s="19"/>
@@ -5092,7 +5057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="19"/>
       <c r="B184" s="19"/>
       <c r="C184" s="19"/>
@@ -5114,7 +5079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="19"/>
       <c r="B185" s="19"/>
       <c r="C185" s="19"/>
@@ -5136,7 +5101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="19"/>
       <c r="B186" s="19"/>
       <c r="C186" s="19"/>
@@ -5158,7 +5123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="19"/>
       <c r="B187" s="19"/>
       <c r="C187" s="19"/>
@@ -5180,7 +5145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="19"/>
       <c r="B188" s="19"/>
       <c r="C188" s="19"/>
@@ -5202,7 +5167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="19"/>
       <c r="B189" s="19"/>
       <c r="C189" s="19"/>
@@ -5224,7 +5189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="19"/>
       <c r="B190" s="19"/>
       <c r="C190" s="19"/>
@@ -5246,7 +5211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="19"/>
       <c r="B191" s="19"/>
       <c r="C191" s="19"/>
@@ -5268,7 +5233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="19"/>
       <c r="B192" s="19"/>
       <c r="C192" s="19"/>
@@ -5290,7 +5255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" s="19"/>
       <c r="B193" s="19"/>
       <c r="C193" s="19"/>
@@ -5312,7 +5277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" s="19"/>
       <c r="B194" s="19"/>
       <c r="C194" s="19"/>
@@ -5334,7 +5299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="19"/>
       <c r="B195" s="19"/>
       <c r="C195" s="19"/>
@@ -5356,7 +5321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="19"/>
       <c r="B196" s="19"/>
       <c r="C196" s="19"/>
@@ -5378,7 +5343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="19"/>
       <c r="B197" s="19"/>
       <c r="C197" s="19"/>
@@ -5400,7 +5365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="19"/>
       <c r="B198" s="19"/>
       <c r="C198" s="19"/>
@@ -5422,7 +5387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="19"/>
       <c r="B199" s="19"/>
       <c r="C199" s="19"/>
@@ -5444,7 +5409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="19"/>
       <c r="B200" s="19"/>
       <c r="C200" s="19"/>
@@ -5466,7 +5431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="19"/>
       <c r="B201" s="19"/>
       <c r="C201" s="19"/>
@@ -5488,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="19"/>
       <c r="B202" s="19"/>
       <c r="C202" s="19"/>
@@ -5510,7 +5475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="19"/>
       <c r="B203" s="19"/>
       <c r="C203" s="19"/>
@@ -5532,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="19"/>
       <c r="B204" s="19"/>
       <c r="C204" s="19"/>
@@ -5554,7 +5519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="19"/>
       <c r="B205" s="19"/>
       <c r="C205" s="19"/>
@@ -5576,7 +5541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="19"/>
       <c r="B206" s="19"/>
       <c r="C206" s="19"/>
@@ -5598,7 +5563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="19"/>
       <c r="B207" s="19"/>
       <c r="C207" s="19"/>
@@ -5620,7 +5585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="19"/>
       <c r="B208" s="19"/>
       <c r="C208" s="19"/>
@@ -5642,7 +5607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="19"/>
       <c r="B209" s="19"/>
       <c r="C209" s="19"/>
@@ -5664,7 +5629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="19"/>
       <c r="B210" s="19"/>
       <c r="C210" s="19"/>
@@ -5686,7 +5651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="19"/>
       <c r="B211" s="19"/>
       <c r="C211" s="19"/>
@@ -5708,7 +5673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="19"/>
       <c r="B212" s="19"/>
       <c r="C212" s="19"/>
@@ -5730,7 +5695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="19"/>
       <c r="B213" s="19"/>
       <c r="C213" s="19"/>
@@ -5752,7 +5717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="19"/>
       <c r="B214" s="19"/>
       <c r="C214" s="19"/>
@@ -5774,7 +5739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="19"/>
       <c r="B215" s="19"/>
       <c r="C215" s="19"/>
@@ -5796,7 +5761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="19"/>
       <c r="B216" s="19"/>
       <c r="C216" s="19"/>
@@ -5818,7 +5783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" s="19"/>
       <c r="B217" s="19"/>
       <c r="C217" s="19"/>
@@ -5840,7 +5805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="19"/>
       <c r="B218" s="19"/>
       <c r="C218" s="19"/>
@@ -5862,7 +5827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" s="19"/>
       <c r="B219" s="19"/>
       <c r="C219" s="19"/>
@@ -5884,7 +5849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" s="19"/>
       <c r="B220" s="19"/>
       <c r="C220" s="19"/>
@@ -5906,7 +5871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="19"/>
       <c r="B221" s="19"/>
       <c r="C221" s="19"/>
@@ -5928,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="19"/>
       <c r="B222" s="19"/>
       <c r="C222" s="19"/>
@@ -5950,7 +5915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="19"/>
       <c r="B223" s="19"/>
       <c r="C223" s="19"/>
@@ -5972,7 +5937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" s="19"/>
       <c r="B224" s="19"/>
       <c r="C224" s="19"/>
@@ -5994,7 +5959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" s="19"/>
       <c r="B225" s="19"/>
       <c r="C225" s="19"/>
@@ -6016,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" s="19"/>
       <c r="B226" s="19"/>
       <c r="C226" s="19"/>
@@ -6038,7 +6003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" s="19"/>
       <c r="B227" s="19"/>
       <c r="C227" s="19"/>
@@ -6060,7 +6025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" s="19"/>
       <c r="B228" s="19"/>
       <c r="C228" s="19"/>
@@ -6082,7 +6047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" s="19"/>
       <c r="B229" s="19"/>
       <c r="C229" s="19"/>
@@ -6104,7 +6069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" s="19"/>
       <c r="B230" s="19"/>
       <c r="C230" s="19"/>
@@ -6126,7 +6091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" s="19"/>
       <c r="B231" s="19"/>
       <c r="C231" s="19"/>
@@ -6148,7 +6113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" s="19"/>
       <c r="B232" s="19"/>
       <c r="C232" s="19"/>
@@ -6170,7 +6135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" s="19"/>
       <c r="B233" s="19"/>
       <c r="C233" s="19"/>
@@ -6192,7 +6157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" s="19"/>
       <c r="B234" s="19"/>
       <c r="C234" s="19"/>
@@ -6214,7 +6179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" s="19"/>
       <c r="B235" s="19"/>
       <c r="C235" s="19"/>
@@ -6236,7 +6201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" s="19"/>
       <c r="B236" s="19"/>
       <c r="C236" s="19"/>
@@ -6258,7 +6223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" s="19"/>
       <c r="B237" s="19"/>
       <c r="C237" s="19"/>
@@ -6280,7 +6245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" s="19"/>
       <c r="B238" s="19"/>
       <c r="C238" s="19"/>
@@ -6302,7 +6267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" s="19"/>
       <c r="B239" s="19"/>
       <c r="C239" s="19"/>
@@ -6324,7 +6289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" s="19"/>
       <c r="B240" s="19"/>
       <c r="C240" s="19"/>
@@ -6346,7 +6311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" s="19"/>
       <c r="B241" s="19"/>
       <c r="C241" s="19"/>
@@ -6368,7 +6333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" s="19"/>
       <c r="B242" s="19"/>
       <c r="C242" s="19"/>
@@ -6390,7 +6355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" s="19"/>
       <c r="B243" s="19"/>
       <c r="C243" s="19"/>
@@ -6412,7 +6377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" s="19"/>
       <c r="B244" s="19"/>
       <c r="C244" s="19"/>
@@ -6434,7 +6399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" s="19"/>
       <c r="B245" s="19"/>
       <c r="C245" s="19"/>
@@ -6456,7 +6421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" s="19"/>
       <c r="B246" s="19"/>
       <c r="C246" s="19"/>
@@ -6478,7 +6443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" s="19"/>
       <c r="B247" s="19"/>
       <c r="C247" s="19"/>
@@ -6500,7 +6465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" s="19"/>
       <c r="B248" s="19"/>
       <c r="C248" s="19"/>
@@ -6522,7 +6487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="19"/>
       <c r="B249" s="19"/>
       <c r="C249" s="19"/>
@@ -6544,7 +6509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="19"/>
       <c r="B250" s="19"/>
       <c r="C250" s="19"/>
@@ -6566,7 +6531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" s="19"/>
       <c r="B251" s="19"/>
       <c r="C251" s="19"/>
@@ -6588,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" s="19"/>
       <c r="B252" s="19"/>
       <c r="C252" s="19"/>
@@ -6610,7 +6575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" s="19"/>
       <c r="B253" s="19"/>
       <c r="C253" s="19"/>
@@ -6632,7 +6597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" s="19"/>
       <c r="B254" s="19"/>
       <c r="C254" s="19"/>
@@ -6654,7 +6619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" s="19"/>
       <c r="B255" s="19"/>
       <c r="C255" s="19"/>
@@ -6676,7 +6641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" s="19"/>
       <c r="B256" s="19"/>
       <c r="C256" s="19"/>
@@ -6698,7 +6663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" s="19"/>
       <c r="B257" s="19"/>
       <c r="C257" s="19"/>
@@ -6720,7 +6685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" s="19"/>
       <c r="B258" s="19"/>
       <c r="C258" s="19"/>
@@ -6742,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="19"/>
       <c r="B259" s="19"/>
       <c r="C259" s="19"/>
@@ -6764,7 +6729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" s="19"/>
       <c r="B260" s="19"/>
       <c r="C260" s="19"/>
@@ -6786,7 +6751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" s="19"/>
       <c r="B261" s="19"/>
       <c r="C261" s="19"/>
@@ -6808,7 +6773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" s="19"/>
       <c r="B262" s="19"/>
       <c r="C262" s="19"/>
@@ -6830,7 +6795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" s="19"/>
       <c r="B263" s="19"/>
       <c r="C263" s="19"/>
@@ -6852,7 +6817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" s="19"/>
       <c r="B264" s="19"/>
       <c r="C264" s="19"/>
@@ -6874,7 +6839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" s="19"/>
       <c r="B265" s="19"/>
       <c r="C265" s="19"/>
@@ -6896,7 +6861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" s="19"/>
       <c r="B266" s="19"/>
       <c r="C266" s="19"/>
@@ -6918,7 +6883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" s="19"/>
       <c r="B267" s="19"/>
       <c r="C267" s="19"/>
@@ -6940,7 +6905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" s="19"/>
       <c r="B268" s="19"/>
       <c r="C268" s="19"/>
@@ -6962,7 +6927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" s="19"/>
       <c r="B269" s="19"/>
       <c r="C269" s="19"/>
@@ -6984,7 +6949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" s="19"/>
       <c r="B270" s="19"/>
       <c r="C270" s="19"/>
@@ -7006,7 +6971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" s="19"/>
       <c r="B271" s="19"/>
       <c r="C271" s="19"/>
@@ -7028,7 +6993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" s="19"/>
       <c r="B272" s="19"/>
       <c r="C272" s="19"/>
@@ -7050,7 +7015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" s="19"/>
       <c r="B273" s="19"/>
       <c r="C273" s="19"/>
@@ -7072,7 +7037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" s="19"/>
       <c r="B274" s="19"/>
       <c r="C274" s="19"/>
@@ -7094,7 +7059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" s="19"/>
       <c r="B275" s="19"/>
       <c r="C275" s="19"/>
@@ -7116,7 +7081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" s="19"/>
       <c r="B276" s="19"/>
       <c r="C276" s="19"/>
@@ -7138,7 +7103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="19"/>
       <c r="B277" s="19"/>
       <c r="C277" s="19"/>
@@ -7160,7 +7125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" s="19"/>
       <c r="B278" s="19"/>
       <c r="C278" s="19"/>
@@ -7182,7 +7147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" s="19"/>
       <c r="B279" s="19"/>
       <c r="C279" s="19"/>
@@ -7204,7 +7169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" s="19"/>
       <c r="B280" s="19"/>
       <c r="C280" s="19"/>
@@ -7226,7 +7191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" s="19"/>
       <c r="B281" s="19"/>
       <c r="C281" s="19"/>
@@ -7248,7 +7213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" s="19"/>
       <c r="B282" s="19"/>
       <c r="C282" s="19"/>
@@ -7270,7 +7235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" s="19"/>
       <c r="B283" s="19"/>
       <c r="C283" s="19"/>
@@ -7292,7 +7257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" s="19"/>
       <c r="B284" s="19"/>
       <c r="C284" s="19"/>
@@ -7314,7 +7279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" s="19"/>
       <c r="B285" s="19"/>
       <c r="C285" s="19"/>
@@ -7336,7 +7301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="19"/>
       <c r="B286" s="19"/>
       <c r="C286" s="19"/>
@@ -7358,7 +7323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" s="19"/>
       <c r="B287" s="19"/>
       <c r="C287" s="19"/>
@@ -7380,7 +7345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" s="19"/>
       <c r="B288" s="19"/>
       <c r="C288" s="19"/>
@@ -7402,7 +7367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" s="19"/>
       <c r="B289" s="19"/>
       <c r="C289" s="19"/>
@@ -7424,7 +7389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" s="19"/>
       <c r="B290" s="19"/>
       <c r="C290" s="19"/>
@@ -7446,7 +7411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" s="19"/>
       <c r="B291" s="19"/>
       <c r="C291" s="19"/>
@@ -7468,7 +7433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" s="19"/>
       <c r="B292" s="19"/>
       <c r="C292" s="19"/>
@@ -7490,7 +7455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" s="19"/>
       <c r="B293" s="19"/>
       <c r="C293" s="19"/>
@@ -7512,7 +7477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294" s="19"/>
       <c r="B294" s="19"/>
       <c r="C294" s="19"/>
@@ -7534,7 +7499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" s="19"/>
       <c r="B295" s="19"/>
       <c r="C295" s="19"/>
@@ -7556,7 +7521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" s="19"/>
       <c r="B296" s="19"/>
       <c r="C296" s="19"/>
@@ -7578,7 +7543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" s="19"/>
       <c r="B297" s="19"/>
       <c r="C297" s="19"/>
@@ -7600,7 +7565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" s="19"/>
       <c r="B298" s="19"/>
       <c r="C298" s="19"/>
@@ -7622,7 +7587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" s="19"/>
       <c r="B299" s="19"/>
       <c r="C299" s="19"/>
@@ -7644,7 +7609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" s="19"/>
       <c r="B300" s="19"/>
       <c r="C300" s="19"/>
@@ -7666,7 +7631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" s="19"/>
       <c r="B301" s="19"/>
       <c r="C301" s="19"/>
@@ -7688,7 +7653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302" s="19"/>
       <c r="B302" s="19"/>
       <c r="C302" s="19"/>
@@ -7710,7 +7675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" s="19"/>
       <c r="B303" s="19"/>
       <c r="C303" s="19"/>
@@ -7732,7 +7697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" s="19"/>
       <c r="B304" s="19"/>
       <c r="C304" s="19"/>
@@ -7754,7 +7719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" s="19"/>
       <c r="B305" s="19"/>
       <c r="C305" s="19"/>
@@ -7776,7 +7741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306" s="19"/>
       <c r="B306" s="19"/>
       <c r="C306" s="19"/>
@@ -7798,7 +7763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" s="19"/>
       <c r="B307" s="19"/>
       <c r="C307" s="19"/>
@@ -7820,7 +7785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308" s="19"/>
       <c r="B308" s="19"/>
       <c r="C308" s="19"/>
@@ -7842,7 +7807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A309" s="19"/>
       <c r="B309" s="19"/>
       <c r="C309" s="19"/>
@@ -7864,7 +7829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A310" s="19"/>
       <c r="B310" s="19"/>
       <c r="C310" s="19"/>
@@ -7886,7 +7851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311" s="19"/>
       <c r="B311" s="19"/>
       <c r="C311" s="19"/>
@@ -7908,7 +7873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A312" s="19"/>
       <c r="B312" s="19"/>
       <c r="C312" s="19"/>
@@ -7930,7 +7895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A313" s="19"/>
       <c r="B313" s="19"/>
       <c r="C313" s="19"/>
@@ -7952,7 +7917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A314" s="19"/>
       <c r="B314" s="19"/>
       <c r="C314" s="19"/>
@@ -7974,7 +7939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A315" s="19"/>
       <c r="B315" s="19"/>
       <c r="C315" s="19"/>
@@ -7996,7 +7961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316" s="19"/>
       <c r="B316" s="19"/>
       <c r="C316" s="19"/>
@@ -8018,7 +7983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317" s="19"/>
       <c r="B317" s="19"/>
       <c r="C317" s="19"/>
@@ -8040,7 +8005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A318" s="19"/>
       <c r="B318" s="19"/>
       <c r="C318" s="19"/>
@@ -8062,7 +8027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A319" s="19"/>
       <c r="B319" s="19"/>
       <c r="C319" s="19"/>
@@ -8084,7 +8049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A320" s="19"/>
       <c r="B320" s="19"/>
       <c r="C320" s="19"/>
@@ -8106,7 +8071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A321" s="19"/>
       <c r="B321" s="19"/>
       <c r="C321" s="19"/>
@@ -8128,7 +8093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A322" s="19"/>
       <c r="B322" s="19"/>
       <c r="C322" s="19"/>
@@ -8150,7 +8115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A323" s="19"/>
       <c r="B323" s="19"/>
       <c r="C323" s="19"/>
@@ -8172,7 +8137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A324" s="19"/>
       <c r="B324" s="19"/>
       <c r="C324" s="19"/>
@@ -8194,7 +8159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A325" s="19"/>
       <c r="B325" s="19"/>
       <c r="C325" s="19"/>
@@ -8216,7 +8181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A326" s="19"/>
       <c r="B326" s="19"/>
       <c r="C326" s="19"/>
@@ -8238,7 +8203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A327" s="19"/>
       <c r="B327" s="19"/>
       <c r="C327" s="19"/>
@@ -8260,7 +8225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A328" s="19"/>
       <c r="B328" s="19"/>
       <c r="C328" s="19"/>
@@ -8282,7 +8247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A329" s="19"/>
       <c r="B329" s="19"/>
       <c r="C329" s="19"/>
@@ -8304,7 +8269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A330" s="19"/>
       <c r="B330" s="19"/>
       <c r="C330" s="19"/>
@@ -8326,7 +8291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A331" s="19"/>
       <c r="B331" s="19"/>
       <c r="C331" s="19"/>
@@ -8348,7 +8313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A332" s="19"/>
       <c r="B332" s="19"/>
       <c r="C332" s="19"/>
@@ -8370,7 +8335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A333" s="19"/>
       <c r="B333" s="19"/>
       <c r="C333" s="19"/>
@@ -8392,7 +8357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A334" s="19"/>
       <c r="B334" s="19"/>
       <c r="C334" s="19"/>
@@ -8414,7 +8379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A335" s="19"/>
       <c r="B335" s="19"/>
       <c r="C335" s="19"/>
@@ -8436,7 +8401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A336" s="19"/>
       <c r="B336" s="19"/>
       <c r="C336" s="19"/>
@@ -8458,7 +8423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A337" s="19"/>
       <c r="B337" s="19"/>
       <c r="C337" s="19"/>
@@ -8480,7 +8445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A338" s="19"/>
       <c r="B338" s="19"/>
       <c r="C338" s="19"/>
@@ -8502,7 +8467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A339" s="19"/>
       <c r="B339" s="19"/>
       <c r="C339" s="19"/>
@@ -8524,7 +8489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A340" s="19"/>
       <c r="B340" s="19"/>
       <c r="C340" s="19"/>
@@ -8546,7 +8511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A341" s="19"/>
       <c r="B341" s="19"/>
       <c r="C341" s="19"/>
@@ -8568,7 +8533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A342" s="19"/>
       <c r="B342" s="19"/>
       <c r="C342" s="19"/>
@@ -8590,7 +8555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A343" s="19"/>
       <c r="B343" s="19"/>
       <c r="C343" s="19"/>
@@ -8612,7 +8577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A344" s="19"/>
       <c r="B344" s="19"/>
       <c r="C344" s="19"/>
@@ -8634,7 +8599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A345" s="19"/>
       <c r="B345" s="19"/>
       <c r="C345" s="19"/>
@@ -8656,7 +8621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A346" s="19"/>
       <c r="B346" s="19"/>
       <c r="C346" s="19"/>
@@ -8678,7 +8643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A347" s="19"/>
       <c r="B347" s="19"/>
       <c r="C347" s="19"/>
@@ -8700,7 +8665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A348" s="19"/>
       <c r="B348" s="19"/>
       <c r="C348" s="19"/>
@@ -8722,7 +8687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A349" s="19"/>
       <c r="B349" s="19"/>
       <c r="C349" s="19"/>
@@ -8744,7 +8709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A350" s="19"/>
       <c r="B350" s="19"/>
       <c r="C350" s="19"/>
@@ -8766,7 +8731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A351" s="19"/>
       <c r="B351" s="19"/>
       <c r="C351" s="19"/>
@@ -8788,7 +8753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A352" s="19"/>
       <c r="B352" s="19"/>
       <c r="C352" s="19"/>
@@ -8810,7 +8775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" s="19"/>
       <c r="B353" s="19"/>
       <c r="C353" s="19"/>
@@ -8832,7 +8797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354" s="19"/>
       <c r="B354" s="19"/>
       <c r="C354" s="19"/>
@@ -8854,7 +8819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" s="19"/>
       <c r="B355" s="19"/>
       <c r="C355" s="19"/>
@@ -8876,7 +8841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" s="19"/>
       <c r="B356" s="19"/>
       <c r="C356" s="19"/>
@@ -8898,7 +8863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" s="19"/>
       <c r="B357" s="19"/>
       <c r="C357" s="19"/>
@@ -8920,7 +8885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" s="19"/>
       <c r="B358" s="19"/>
       <c r="C358" s="19"/>
@@ -8942,7 +8907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" s="19"/>
       <c r="B359" s="19"/>
       <c r="C359" s="19"/>
@@ -8964,7 +8929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A360" s="19"/>
       <c r="B360" s="19"/>
       <c r="C360" s="19"/>
@@ -8987,7 +8952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A361" s="19"/>
       <c r="B361" s="19"/>
       <c r="C361" s="19"/>
@@ -9010,7 +8975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362" s="19"/>
       <c r="B362" s="39"/>
       <c r="C362" s="19"/>
@@ -9019,7 +8984,7 @@
       <c r="H362" s="25"/>
       <c r="I362" s="40"/>
     </row>
-    <row r="363" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A363" s="19"/>
       <c r="B363" s="19"/>
       <c r="C363" s="19"/>
@@ -9036,7 +9001,7 @@
       </c>
       <c r="J363"/>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364" s="19"/>
       <c r="B364" s="19"/>
       <c r="C364" s="19"/>
@@ -9045,7 +9010,7 @@
       <c r="H364" s="25"/>
       <c r="I364" s="25"/>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365" s="19"/>
       <c r="B365" s="19"/>
       <c r="C365" s="48" t="s">
@@ -9056,7 +9021,7 @@
       <c r="H365" s="25"/>
       <c r="I365" s="25"/>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366" s="19"/>
       <c r="B366" s="19"/>
       <c r="C366" s="19"/>
@@ -9065,7 +9030,7 @@
       <c r="H366" s="25"/>
       <c r="I366" s="25"/>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367" s="19"/>
       <c r="B367" s="19"/>
       <c r="C367" s="19"/>
@@ -9087,7 +9052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A368" s="19"/>
       <c r="B368" s="19"/>
       <c r="C368" s="19"/>
@@ -9111,7 +9076,7 @@
       </c>
       <c r="J368"/>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A369" s="19"/>
       <c r="B369" s="19"/>
       <c r="C369" s="19"/>
@@ -9133,7 +9098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A370" s="19"/>
       <c r="B370" s="19"/>
       <c r="C370" s="19"/>
@@ -9155,7 +9120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A371" s="19"/>
       <c r="B371" s="19"/>
       <c r="C371" s="19"/>
@@ -9177,7 +9142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A372" s="19"/>
       <c r="B372" s="19"/>
       <c r="C372" s="19"/>
@@ -9186,7 +9151,7 @@
       <c r="H372" s="25"/>
       <c r="I372" s="41"/>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A373" s="19"/>
       <c r="B373" s="19"/>
       <c r="C373" s="19"/>
@@ -9200,7 +9165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A374" s="19"/>
       <c r="B374" s="19"/>
       <c r="C374" s="19"/>
@@ -9209,7 +9174,7 @@
       <c r="H374" s="25"/>
       <c r="I374" s="25"/>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A375" s="19"/>
       <c r="B375" s="19"/>
       <c r="C375" s="48" t="s">
@@ -9220,14 +9185,14 @@
       <c r="H375" s="25"/>
       <c r="I375" s="25"/>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B376" s="19"/>
       <c r="D376" s="9"/>
       <c r="G376" s="25"/>
       <c r="H376" s="9"/>
       <c r="I376" s="10"/>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A377" s="8"/>
       <c r="B377" s="8"/>
       <c r="C377" s="8"/>
@@ -9250,7 +9215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B378" s="19"/>
       <c r="D378" s="9">
         <v>0</v>
@@ -9270,7 +9235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B379" s="19"/>
       <c r="D379" s="9">
         <v>0</v>
@@ -9290,7 +9255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D380" s="9">
         <v>0</v>
       </c>
@@ -9309,7 +9274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B381" s="19"/>
       <c r="D381" s="9">
         <v>0</v>
@@ -9329,14 +9294,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B382" s="19"/>
       <c r="D382" s="9"/>
       <c r="G382" s="25"/>
       <c r="H382" s="9"/>
       <c r="I382" s="26"/>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D383" s="1"/>
       <c r="H383" s="13" t="s">
         <v>19</v>
@@ -9346,7 +9311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D385" s="34"/>
       <c r="H385" s="13" t="s">
         <v>54</v>
@@ -9356,7 +9321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A386" s="12"/>
       <c r="B386" s="12"/>
       <c r="C386" s="12"/>
@@ -9367,7 +9332,7 @@
       <c r="H386" s="18"/>
       <c r="I386" s="44"/>
     </row>
-    <row r="388" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C388" s="45" t="s">
         <v>49</v>
       </c>
@@ -9375,7 +9340,7 @@
       <c r="H388" s="20"/>
       <c r="I388" s="6"/>
     </row>
-    <row r="390" spans="1:9" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A390" s="55" t="s">
         <v>2</v>
       </c>
@@ -9404,7 +9369,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A391" s="72"/>
       <c r="B391" s="72"/>
       <c r="C391" s="72"/>
@@ -9427,7 +9392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B392" s="19"/>
       <c r="D392" s="46">
         <v>0</v>
@@ -9447,7 +9412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A393" s="59"/>
       <c r="B393" s="39"/>
       <c r="C393" s="59"/>
@@ -9470,7 +9435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A394" s="59"/>
       <c r="B394" s="39"/>
       <c r="C394" s="59"/>
@@ -9493,7 +9458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A395" s="59"/>
       <c r="B395" s="39"/>
       <c r="C395" s="59"/>
@@ -9516,7 +9481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A396" s="59"/>
       <c r="B396" s="39"/>
       <c r="C396" s="59"/>
@@ -9539,7 +9504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A397" s="59"/>
       <c r="B397" s="39"/>
       <c r="C397" s="59"/>
@@ -9562,7 +9527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:9" s="59" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:9" s="59" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B398" s="39"/>
       <c r="D398" s="60">
         <v>0</v>
@@ -9582,7 +9547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:9" s="59" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:9" s="59" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B399" s="39"/>
       <c r="D399" s="60">
         <v>0</v>
@@ -9602,7 +9567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:9" s="59" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:9" s="59" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B400" s="39"/>
       <c r="D400" s="60">
         <v>0</v>
@@ -9622,7 +9587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:10" s="59" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:10" s="59" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B401" s="39"/>
       <c r="D401" s="60">
         <v>0</v>
@@ -9642,7 +9607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:10" s="59" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:10" s="59" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B402" s="39"/>
       <c r="D402" s="60">
         <v>0</v>
@@ -9662,7 +9627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:10" s="59" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:10" s="59" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A403" s="39"/>
       <c r="B403" s="39"/>
       <c r="C403" s="39"/>
@@ -9684,14 +9649,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:10" s="59" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:10" s="59" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B404" s="39"/>
       <c r="D404" s="62"/>
       <c r="G404" s="61"/>
       <c r="H404" s="62"/>
       <c r="I404" s="61"/>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D405" s="9"/>
       <c r="G405" s="25"/>
       <c r="H405" s="20" t="s">
@@ -9703,7 +9668,7 @@
       </c>
       <c r="J405" s="47"/>
     </row>
-    <row r="406" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A406" s="12"/>
       <c r="B406" s="12"/>
       <c r="C406" s="12"/>
@@ -9714,12 +9679,12 @@
       <c r="H406" s="18"/>
       <c r="I406" s="44"/>
     </row>
-    <row r="408" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C408" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="410" spans="1:10" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" s="55" t="s">
         <v>2</v>
       </c>
@@ -9748,7 +9713,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A411" s="8"/>
       <c r="B411" s="73"/>
       <c r="C411" s="74"/>
@@ -9771,7 +9736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A412" s="12"/>
       <c r="B412" s="12"/>
       <c r="C412" s="12"/>
@@ -9782,12 +9747,12 @@
       <c r="H412" s="18"/>
       <c r="I412" s="44"/>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D414" s="1"/>
       <c r="H414" s="1"/>
       <c r="I414" s="25"/>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D415" s="1"/>
       <c r="H415" s="20" t="s">
         <v>24</v>
@@ -9797,7 +9762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C417" s="13" t="s">
         <v>25</v>
       </c>
@@ -9809,7 +9774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D418" s="34" t="s">
         <v>27</v>
       </c>
@@ -9818,7 +9783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D419" s="34" t="s">
         <v>53</v>
       </c>
@@ -9827,7 +9792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D420" s="34" t="s">
         <v>28</v>
       </c>
@@ -9836,7 +9801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D421" s="34" t="s">
         <v>23</v>
       </c>
@@ -9846,7 +9811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D422" s="34" t="s">
         <v>49</v>
       </c>
@@ -9857,7 +9822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D423" s="3"/>
       <c r="H423" s="13" t="s">
         <v>29</v>
@@ -9867,13 +9832,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C426" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E426" s="2"/>
     </row>
-    <row r="427" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:9" x14ac:dyDescent="0.2">
       <c r="F427" s="2" t="s">
         <v>31</v>
       </c>
@@ -9881,7 +9846,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="428" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D428" s="34" t="s">
         <v>26</v>
       </c>
@@ -9894,7 +9859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D429" s="34" t="s">
         <v>27</v>
       </c>
@@ -9907,7 +9872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D430" s="34" t="s">
         <v>53</v>
       </c>
@@ -9920,7 +9885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D431" s="34" t="s">
         <v>28</v>
       </c>
@@ -9933,7 +9898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D432" s="34" t="s">
         <v>33</v>
       </c>
@@ -9946,7 +9911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D433" s="34" t="s">
         <v>34</v>
       </c>
@@ -9959,7 +9924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D434" s="3" t="s">
         <v>35</v>
       </c>
@@ -9976,12 +9941,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D435" s="3"/>
       <c r="F435" s="14"/>
       <c r="G435" s="21"/>
     </row>
-    <row r="436" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C436" s="13" t="s">
         <v>37</v>
       </c>
@@ -9990,12 +9955,12 @@
       <c r="F436" s="14"/>
       <c r="G436" s="21"/>
     </row>
-    <row r="437" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D437" s="3"/>
       <c r="F437" s="14"/>
       <c r="G437" s="21"/>
     </row>
-    <row r="438" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D438" s="34" t="s">
         <v>38</v>
       </c>
@@ -10005,7 +9970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D439" s="34" t="s">
         <v>39</v>
       </c>
@@ -10015,7 +9980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D440" s="34" t="s">
         <v>40</v>
       </c>
@@ -10025,7 +9990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D441" s="34"/>
       <c r="F441" s="14"/>
       <c r="G441" s="14"/>
@@ -10033,12 +9998,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:9" x14ac:dyDescent="0.2">
       <c r="I442" s="42">
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D443" s="3"/>
       <c r="H443" s="13" t="s">
         <v>41</v>
@@ -10048,7 +10013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D446" s="3"/>
       <c r="G446" s="13" t="s">
         <v>42</v>
@@ -10058,14 +10023,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D448" s="3"/>
       <c r="G448" s="13" t="s">
         <v>43</v>
       </c>
       <c r="I448" s="29"/>
     </row>
-    <row r="450" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D450" s="3"/>
       <c r="G450" s="13" t="s">
         <v>44</v>
@@ -10075,7 +10040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:9" x14ac:dyDescent="0.2">
       <c r="G452" s="13" t="s">
         <v>45</v>
       </c>
@@ -10084,28 +10049,28 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="455" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C455" s="3"/>
       <c r="D455" s="1"/>
       <c r="H455" s="1"/>
       <c r="I455" s="25"/>
     </row>
-    <row r="456" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:9" x14ac:dyDescent="0.2">
       <c r="I456" s="25"/>
     </row>
-    <row r="457" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:9" x14ac:dyDescent="0.2">
       <c r="I457" s="25"/>
     </row>
-    <row r="458" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:9" x14ac:dyDescent="0.2">
       <c r="I458" s="25"/>
     </row>
-    <row r="459" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:9" x14ac:dyDescent="0.2">
       <c r="I459" s="25"/>
     </row>
-    <row r="460" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:9" x14ac:dyDescent="0.2">
       <c r="I460" s="25"/>
     </row>
-    <row r="461" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:9" x14ac:dyDescent="0.2">
       <c r="I461" s="25"/>
     </row>
   </sheetData>
